--- a/pdata.xlsx
+++ b/pdata.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\git\Project3-CUDA-Path-Tracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22B23E-4A3B-4916-B326-D6E74A309D4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9283D2C-E4D9-4C63-A406-75362628585E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2100" windowWidth="33735" windowHeight="17940" activeTab="3" xr2:uid="{81DE7C96-5C4A-4BA9-B078-EF57C5040B4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{81DE7C96-5C4A-4BA9-B078-EF57C5040B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Data" sheetId="1" r:id="rId1"/>
     <sheet name="Mat Sort All Diffuse 2 mats" sheetId="3" r:id="rId2"/>
     <sheet name="Mat Sort Step" sheetId="2" r:id="rId3"/>
     <sheet name="OptUnopt Complexity" sheetId="4" r:id="rId4"/>
+    <sheet name="NoWalls" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Feature Showcase Scene</t>
   </si>
@@ -88,22 +89,28 @@
     <t>200 Mats</t>
   </si>
   <si>
-    <t>Unopt, 20 Objs, 5 Mat.</t>
-  </si>
-  <si>
     <t>Unopt, 200 Objs, 50 Mat</t>
   </si>
   <si>
-    <t>opt, 20 Objs, 5 Mat.</t>
+    <t>Unopt, 20 Objs, 5 Mat</t>
   </si>
   <si>
-    <t>opt, 200 Objs, 50 Mat</t>
+    <t>Unopt, 2000 Objs, 500 Mat</t>
   </si>
   <si>
-    <t>opt 2000 Objs, 500 Mat</t>
+    <t>Opt, 20 Objs, 5 Mat</t>
   </si>
   <si>
-    <t>Unopt 2000 Objs, 500 Mat</t>
+    <t>Opt, 200 Objs, 50 Mat</t>
+  </si>
+  <si>
+    <t>Opt, 2000 Objs, 500 Mat</t>
+  </si>
+  <si>
+    <t>200 Objects, With Walls</t>
+  </si>
+  <si>
+    <t>200 Objects, No Walls</t>
   </si>
 </sst>
 </file>
@@ -969,6 +976,1362 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scene</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Complexity Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unopt, 20 Objs, 5 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$C$10:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7050559999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0591680000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.424064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3423039999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.368544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5752319999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2883200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2434240000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unopt, 200 Objs, 50 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$G$10:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.786784000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.015231999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.696448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.72944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.49776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.038368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.863872000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.012832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unopt, 2000 Objs, 500 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$K$10:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>114.401405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.476349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.80639600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.180992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.381058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.91280399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111.974205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.26057400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt, 20 Objs, 5 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$P$10:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23.107361000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.317216999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.431360000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.746880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.405568000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.007104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.661568000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.501087999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt, 200 Objs, 50 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$T$10:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.430047999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.616543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.993182999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.796064000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.425823000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.004543000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.231680000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.270816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OptUnopt Complexity'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt, 2000 Objs, 500 Mat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'OptUnopt Complexity'!$X$10:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23.851744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.15481600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.421890000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.487487999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.945087000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.778305000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.257567999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.735554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8552-47F0-916D-2BA5F66ABAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="724769568"/>
+        <c:axId val="724766944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="724769568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pathtracer Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724766944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724766944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724769568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bounding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Walls Ray Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NoWalls!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 Objects, With Walls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NoWalls!$B$10:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2387518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1843177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1605411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1424155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1284284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1169829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1073263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6C65-497B-B54F-16563AD3E206}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NoWalls!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 Objects, No Walls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NoWalls!$G$10:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1066922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6C65-497B-B54F-16563AD3E206}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="724769568"/>
+        <c:axId val="724766944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="724769568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pathtracer Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724766944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="724766944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rays</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724769568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1009,7 +2372,1185 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1599,6 +4140,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A04BB2-C906-43B2-AE42-A5CC9D507A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237472A-EE96-4EEA-A1AB-A47B5C988CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16043,32 +18670,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48229FB-A364-484F-B4AF-E2D5038A1635}">
-  <dimension ref="A1:X161"/>
+  <dimension ref="A1:AC161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -18703,7 +21330,7 @@
         <v>37.265087000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -18758,8 +21385,12 @@
       <c r="X49">
         <v>33.779677999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC49">
+        <f>SUM(K10:K17)</f>
+        <v>916.3937830000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -18814,8 +21445,12 @@
       <c r="X50">
         <v>23.279648000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC50">
+        <f>SUM(X10:X17)</f>
+        <v>426.63245199999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -18871,7 +21506,7 @@
         <v>133.30908199999999</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -18927,7 +21562,7 @@
         <v>64.043137000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -18983,7 +21618,7 @@
         <v>51.003967000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -19039,7 +21674,7 @@
         <v>42.045344999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -19095,7 +21730,7 @@
         <v>38.263038999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -19151,7 +21786,7 @@
         <v>34.604961000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -19207,7 +21842,7 @@
         <v>32.747425</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -19263,7 +21898,7 @@
         <v>22.605823999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -19319,7 +21954,7 @@
         <v>128.500381</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -19375,7 +22010,7 @@
         <v>64.622398000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -19431,7 +22066,7 @@
         <v>51.636032</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -19487,7 +22122,7 @@
         <v>43.386848000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -19543,7 +22178,7 @@
         <v>39.798144999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -25033,6 +27668,3243 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F4A389-D5DF-4500-99E9-B92C78C81632}">
+  <dimension ref="A1:N161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2387518</v>
+      </c>
+      <c r="C2">
+        <v>41.257022999999997</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1066922</v>
+      </c>
+      <c r="H2">
+        <v>34.817470999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1842577</v>
+      </c>
+      <c r="C3">
+        <v>39.374400999999999</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>255279</v>
+      </c>
+      <c r="H3">
+        <v>15.211392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1604607</v>
+      </c>
+      <c r="C4">
+        <v>32.120353999999999</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>88656</v>
+      </c>
+      <c r="H4">
+        <v>5.8725120000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1423785</v>
+      </c>
+      <c r="C5">
+        <v>29.542496</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>32009</v>
+      </c>
+      <c r="H5">
+        <v>2.461376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1284304</v>
+      </c>
+      <c r="C6">
+        <v>24.581983999999999</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>13809</v>
+      </c>
+      <c r="H6">
+        <v>1.191872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1169214</v>
+      </c>
+      <c r="C7">
+        <v>23.158785000000002</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6546</v>
+      </c>
+      <c r="H7">
+        <v>1.1390720000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1072273</v>
+      </c>
+      <c r="C8">
+        <v>19.496351000000001</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>3788</v>
+      </c>
+      <c r="H8">
+        <v>1.111712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>18.954304</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.1493119999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2387518</v>
+      </c>
+      <c r="C10">
+        <v>22.14752</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1066922</v>
+      </c>
+      <c r="H10">
+        <v>18.709185000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1843177</v>
+      </c>
+      <c r="C11">
+        <v>32.630848</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>255006</v>
+      </c>
+      <c r="H11">
+        <v>15.671072000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1605411</v>
+      </c>
+      <c r="C12">
+        <v>26.857310999999999</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>88235</v>
+      </c>
+      <c r="H12">
+        <v>5.7574719999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1424155</v>
+      </c>
+      <c r="C13">
+        <v>24.637407</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>32235</v>
+      </c>
+      <c r="H13">
+        <v>3.1232000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1284284</v>
+      </c>
+      <c r="C14">
+        <v>20.410623999999999</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>13857</v>
+      </c>
+      <c r="H14">
+        <v>1.1708160000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1169829</v>
+      </c>
+      <c r="C15">
+        <v>17.857759000000001</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>6519</v>
+      </c>
+      <c r="H15">
+        <v>1.07744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1073263</v>
+      </c>
+      <c r="C16">
+        <v>16.842366999999999</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>3852</v>
+      </c>
+      <c r="H16">
+        <v>1.3844160000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>15.792351999999999</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.976032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2387518</v>
+      </c>
+      <c r="C18">
+        <v>22.845568</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1066922</v>
+      </c>
+      <c r="H18">
+        <v>18.731009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1843045</v>
+      </c>
+      <c r="C19">
+        <v>32.331229999999998</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>254560</v>
+      </c>
+      <c r="H19">
+        <v>14.541312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1605360</v>
+      </c>
+      <c r="C20">
+        <v>27.263231000000001</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>88349</v>
+      </c>
+      <c r="H20">
+        <v>4.7077119999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1423600</v>
+      </c>
+      <c r="C21">
+        <v>24.468416000000001</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>32117</v>
+      </c>
+      <c r="H21">
+        <v>3.1283840000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1284192</v>
+      </c>
+      <c r="C22">
+        <v>21.909856999999999</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>13771</v>
+      </c>
+      <c r="H22">
+        <v>1.1533439999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1169061</v>
+      </c>
+      <c r="C23">
+        <v>17.300702999999999</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>6431</v>
+      </c>
+      <c r="H23">
+        <v>1.0936319999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1072361</v>
+      </c>
+      <c r="C24">
+        <v>16.949247</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>3778</v>
+      </c>
+      <c r="H24">
+        <v>1.1079680000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>15.349632</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.8124800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2387518</v>
+      </c>
+      <c r="C26">
+        <v>24.387104000000001</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1066922</v>
+      </c>
+      <c r="H26">
+        <v>20.506623999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1843090</v>
+      </c>
+      <c r="C27">
+        <v>31.106079000000001</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>254455</v>
+      </c>
+      <c r="H27">
+        <v>13.782752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1606498</v>
+      </c>
+      <c r="C28">
+        <v>26.169951999999999</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>88423</v>
+      </c>
+      <c r="H28">
+        <v>4.9544959999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1424618</v>
+      </c>
+      <c r="C29">
+        <v>25.378847</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>32170</v>
+      </c>
+      <c r="H29">
+        <v>2.4415680000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1284660</v>
+      </c>
+      <c r="C30">
+        <v>20.814624999999999</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>13902</v>
+      </c>
+      <c r="H30">
+        <v>1.1584000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1169954</v>
+      </c>
+      <c r="C31">
+        <v>18.552416000000001</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6542</v>
+      </c>
+      <c r="H31">
+        <v>1.1027199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1073563</v>
+      </c>
+      <c r="C32">
+        <v>15.935040000000001</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>3830</v>
+      </c>
+      <c r="H32">
+        <v>1.050656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>15.402176000000001</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1.5553920000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2387518</v>
+      </c>
+      <c r="C34">
+        <v>23.787136</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1066922</v>
+      </c>
+      <c r="H34">
+        <v>19.759136000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1843581</v>
+      </c>
+      <c r="C35">
+        <v>31.374783999999998</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>254802</v>
+      </c>
+      <c r="H35">
+        <v>13.236288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1606446</v>
+      </c>
+      <c r="C36">
+        <v>25.899039999999999</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>88832</v>
+      </c>
+      <c r="H36">
+        <v>4.8794560000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1425311</v>
+      </c>
+      <c r="C37">
+        <v>25.782271999999999</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>31917</v>
+      </c>
+      <c r="H37">
+        <v>2.4987200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1285864</v>
+      </c>
+      <c r="C38">
+        <v>19.739967</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>13680</v>
+      </c>
+      <c r="H38">
+        <v>1.1293439999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>1170434</v>
+      </c>
+      <c r="C39">
+        <v>17.966622999999998</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>6555</v>
+      </c>
+      <c r="H39">
+        <v>1.7061759999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1074072</v>
+      </c>
+      <c r="C40">
+        <v>16.708416</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>3819</v>
+      </c>
+      <c r="H40">
+        <v>1.0439039999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>15.322656</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1.0488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>2387518</v>
+      </c>
+      <c r="C42">
+        <v>23.012416999999999</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1066922</v>
+      </c>
+      <c r="H42">
+        <v>17.645759999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1842966</v>
+      </c>
+      <c r="C43">
+        <v>31.812351</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>254807</v>
+      </c>
+      <c r="H43">
+        <v>12.826368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1605648</v>
+      </c>
+      <c r="C44">
+        <v>26.169727000000002</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>88426</v>
+      </c>
+      <c r="H44">
+        <v>4.2579200000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1423714</v>
+      </c>
+      <c r="C45">
+        <v>22.999264</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>32315</v>
+      </c>
+      <c r="H45">
+        <v>2.2576960000000001</v>
+      </c>
+      <c r="M45">
+        <f>G8/G2</f>
+        <v>3.5504001229705639E-3</v>
+      </c>
+      <c r="N45">
+        <f>B8/B2</f>
+        <v>0.44911619514491619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1284333</v>
+      </c>
+      <c r="C46">
+        <v>19.812000000000001</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>13931</v>
+      </c>
+      <c r="H46">
+        <v>1.062592</v>
+      </c>
+      <c r="N46">
+        <f>1-N45</f>
+        <v>0.55088380485508381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1169414</v>
+      </c>
+      <c r="C47">
+        <v>17.943584000000001</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>6423</v>
+      </c>
+      <c r="H47">
+        <v>1.012192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1073184</v>
+      </c>
+      <c r="C48">
+        <v>16.680638999999999</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>3806</v>
+      </c>
+      <c r="H48">
+        <v>0.99142399999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>15.907135999999999</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1.009056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>2387518</v>
+      </c>
+      <c r="C50">
+        <v>22.936512</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1066922</v>
+      </c>
+      <c r="H50">
+        <v>16.820065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1842639</v>
+      </c>
+      <c r="C51">
+        <v>32.459743000000003</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>255276</v>
+      </c>
+      <c r="H51">
+        <v>12.657024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1605022</v>
+      </c>
+      <c r="C52">
+        <v>26.523807999999999</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>89301</v>
+      </c>
+      <c r="H52">
+        <v>4.3633280000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>1424278</v>
+      </c>
+      <c r="C53">
+        <v>23.286625000000001</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>32332</v>
+      </c>
+      <c r="H53">
+        <v>2.9056639999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>1285612</v>
+      </c>
+      <c r="C54">
+        <v>21.440161</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>13841</v>
+      </c>
+      <c r="H54">
+        <v>1.0844480000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>1170471</v>
+      </c>
+      <c r="C55">
+        <v>16.865214999999999</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>6534</v>
+      </c>
+      <c r="H55">
+        <v>1.0305599999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>1074287</v>
+      </c>
+      <c r="C56">
+        <v>16.449407999999998</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>3891</v>
+      </c>
+      <c r="H56">
+        <v>1.010176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>14.696351999999999</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.99164799999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2387518</v>
+      </c>
+      <c r="C58">
+        <v>23.107904000000001</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1066922</v>
+      </c>
+      <c r="H58">
+        <v>15.731168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1843460</v>
+      </c>
+      <c r="C59">
+        <v>31.836766999999998</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>254795</v>
+      </c>
+      <c r="H59">
+        <v>12.707808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>1606760</v>
+      </c>
+      <c r="C60">
+        <v>26.065215999999999</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>88684</v>
+      </c>
+      <c r="H60">
+        <v>4.2607359999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>1424891</v>
+      </c>
+      <c r="C61">
+        <v>25.563744</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>32173</v>
+      </c>
+      <c r="H61">
+        <v>2.9020160000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>1285364</v>
+      </c>
+      <c r="C62">
+        <v>20.490721000000001</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>13715</v>
+      </c>
+      <c r="H62">
+        <v>1.567968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>1170536</v>
+      </c>
+      <c r="C63">
+        <v>17.927391</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>6434</v>
+      </c>
+      <c r="H63">
+        <v>1.551264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>1073780</v>
+      </c>
+      <c r="C64">
+        <v>16.058657</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>3873</v>
+      </c>
+      <c r="H64">
+        <v>1.515776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>15.668256</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1.5096000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2387518</v>
+      </c>
+      <c r="C66">
+        <v>23.385120000000001</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1066922</v>
+      </c>
+      <c r="H66">
+        <v>17.181630999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>1842538</v>
+      </c>
+      <c r="C67">
+        <v>32.200702999999997</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>254852</v>
+      </c>
+      <c r="H67">
+        <v>12.003232000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>1605662</v>
+      </c>
+      <c r="C68">
+        <v>26.139105000000001</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>88337</v>
+      </c>
+      <c r="H68">
+        <v>4.5988800000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>1424948</v>
+      </c>
+      <c r="C69">
+        <v>23.261472999999999</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>32113</v>
+      </c>
+      <c r="H69">
+        <v>2.7147519999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>1285007</v>
+      </c>
+      <c r="C70">
+        <v>20.674688</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>13918</v>
+      </c>
+      <c r="H70">
+        <v>1.0582720000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>1169601</v>
+      </c>
+      <c r="C71">
+        <v>18.028542999999999</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>6550</v>
+      </c>
+      <c r="H71">
+        <v>1.0272319999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>1073003</v>
+      </c>
+      <c r="C72">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>3772</v>
+      </c>
+      <c r="H72">
+        <v>0.99516800000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>15.656608</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1.0065919999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2387518</v>
+      </c>
+      <c r="C74">
+        <v>22.644928</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1066922</v>
+      </c>
+      <c r="H74">
+        <v>18.943999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>1842403</v>
+      </c>
+      <c r="C75">
+        <v>31.178367999999999</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>254260</v>
+      </c>
+      <c r="H75">
+        <v>11.534656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>1605243</v>
+      </c>
+      <c r="C76">
+        <v>26.771232999999999</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>88586</v>
+      </c>
+      <c r="H76">
+        <v>4.4669439999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>1423479</v>
+      </c>
+      <c r="C77">
+        <v>23.782623000000001</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>32098</v>
+      </c>
+      <c r="H77">
+        <v>1.999584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>1283503</v>
+      </c>
+      <c r="C78">
+        <v>21.352799999999998</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>13761</v>
+      </c>
+      <c r="H78">
+        <v>1.0547200000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>1168713</v>
+      </c>
+      <c r="C79">
+        <v>19.142911999999999</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>6465</v>
+      </c>
+      <c r="H79">
+        <v>1.01664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>1072195</v>
+      </c>
+      <c r="C80">
+        <v>16.722912000000001</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>3781</v>
+      </c>
+      <c r="H80">
+        <v>1.025984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>15.379168</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.98512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2387518</v>
+      </c>
+      <c r="C82">
+        <v>23.931328000000001</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1066922</v>
+      </c>
+      <c r="H82">
+        <v>17.470177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>1842632</v>
+      </c>
+      <c r="C83">
+        <v>31.444735999999999</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>254685</v>
+      </c>
+      <c r="H83">
+        <v>11.697504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1606197</v>
+      </c>
+      <c r="C84">
+        <v>27.010303</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>88739</v>
+      </c>
+      <c r="H84">
+        <v>4.4664000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>1424804</v>
+      </c>
+      <c r="C85">
+        <v>24.715616000000001</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>32290</v>
+      </c>
+      <c r="H85">
+        <v>1.9783999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>1285182</v>
+      </c>
+      <c r="C86">
+        <v>20.350816999999999</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>13977</v>
+      </c>
+      <c r="H86">
+        <v>1.3087359999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>1169473</v>
+      </c>
+      <c r="C87">
+        <v>17.710785000000001</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>6522</v>
+      </c>
+      <c r="H87">
+        <v>1.0325759999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>1072816</v>
+      </c>
+      <c r="C88">
+        <v>16.792287999999999</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>3827</v>
+      </c>
+      <c r="H88">
+        <v>1.0036799999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>15.439424000000001</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1.020224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2387518</v>
+      </c>
+      <c r="C90">
+        <v>24.433439</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1066922</v>
+      </c>
+      <c r="H90">
+        <v>17.551071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>1843495</v>
+      </c>
+      <c r="C91">
+        <v>32.713408999999999</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>254703</v>
+      </c>
+      <c r="H91">
+        <v>11.632479999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>1605696</v>
+      </c>
+      <c r="C92">
+        <v>26.153503000000001</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>88222</v>
+      </c>
+      <c r="H92">
+        <v>4.8228479999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>1424251</v>
+      </c>
+      <c r="C93">
+        <v>24.474688</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>31993</v>
+      </c>
+      <c r="H93">
+        <v>2.27712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>1285091</v>
+      </c>
+      <c r="C94">
+        <v>20.457471999999999</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>13666</v>
+      </c>
+      <c r="H94">
+        <v>1.084416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>1169658</v>
+      </c>
+      <c r="C95">
+        <v>18.002974999999999</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95">
+        <v>6277</v>
+      </c>
+      <c r="H95">
+        <v>1.007584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>1073011</v>
+      </c>
+      <c r="C96">
+        <v>17.209983999999999</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96">
+        <v>3662</v>
+      </c>
+      <c r="H96">
+        <v>1.064832</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>15.815904</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1.0036160000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>2387518</v>
+      </c>
+      <c r="C98">
+        <v>24.059904</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1066922</v>
+      </c>
+      <c r="H98">
+        <v>17.250273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>1843246</v>
+      </c>
+      <c r="C99">
+        <v>32.760063000000002</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>254801</v>
+      </c>
+      <c r="H99">
+        <v>11.712384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>1605200</v>
+      </c>
+      <c r="C100">
+        <v>26.826559</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>88369</v>
+      </c>
+      <c r="H100">
+        <v>4.5533440000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>1423058</v>
+      </c>
+      <c r="C101">
+        <v>24.366367</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>31807</v>
+      </c>
+      <c r="H101">
+        <v>2.2156799999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>1283037</v>
+      </c>
+      <c r="C102">
+        <v>20.670849</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>13491</v>
+      </c>
+      <c r="H102">
+        <v>1.0775999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>1167796</v>
+      </c>
+      <c r="C103">
+        <v>17.184193</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>6406</v>
+      </c>
+      <c r="H103">
+        <v>1.0219199999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>1070875</v>
+      </c>
+      <c r="C104">
+        <v>16.123902999999999</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>3770</v>
+      </c>
+      <c r="H104">
+        <v>0.99859200000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>15.312480000000001</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.97894400000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>2387518</v>
+      </c>
+      <c r="C106">
+        <v>24.019424000000001</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1066922</v>
+      </c>
+      <c r="H106">
+        <v>17.352833</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>1842900</v>
+      </c>
+      <c r="C107">
+        <v>31.472864000000001</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>254414</v>
+      </c>
+      <c r="H107">
+        <v>11.987264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>1605173</v>
+      </c>
+      <c r="C108">
+        <v>26.506529</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>88524</v>
+      </c>
+      <c r="H108">
+        <v>4.7251519999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>1423412</v>
+      </c>
+      <c r="C109">
+        <v>25.424064999999999</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>32005</v>
+      </c>
+      <c r="H109">
+        <v>2.1666880000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>1283928</v>
+      </c>
+      <c r="C110">
+        <v>20.546880999999999</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>13897</v>
+      </c>
+      <c r="H110">
+        <v>1.1049599999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>1168713</v>
+      </c>
+      <c r="C111">
+        <v>17.577535999999998</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111">
+        <v>6483</v>
+      </c>
+      <c r="H111">
+        <v>1.016224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>1072085</v>
+      </c>
+      <c r="C112">
+        <v>16.493313000000001</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>3846</v>
+      </c>
+      <c r="H112">
+        <v>1.0056320000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>15.060992000000001</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0.97865599999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>2387518</v>
+      </c>
+      <c r="C114">
+        <v>23.539967999999998</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1066922</v>
+      </c>
+      <c r="H114">
+        <v>17.187360999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>1843605</v>
+      </c>
+      <c r="C115">
+        <v>32.111038000000001</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>255746</v>
+      </c>
+      <c r="H115">
+        <v>11.731712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>1606098</v>
+      </c>
+      <c r="C116">
+        <v>26.531808999999999</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>88647</v>
+      </c>
+      <c r="H116">
+        <v>4.9447039999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117">
+        <v>1424106</v>
+      </c>
+      <c r="C117">
+        <v>23.328928000000001</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>32304</v>
+      </c>
+      <c r="H117">
+        <v>2.24336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>1284651</v>
+      </c>
+      <c r="C118">
+        <v>20.384416999999999</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>13832</v>
+      </c>
+      <c r="H118">
+        <v>1.0558399999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>1169567</v>
+      </c>
+      <c r="C119">
+        <v>18.233568000000002</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+      <c r="G119">
+        <v>6397</v>
+      </c>
+      <c r="H119">
+        <v>1.027136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>1072656</v>
+      </c>
+      <c r="C120">
+        <v>16.708863999999998</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <v>3771</v>
+      </c>
+      <c r="H120">
+        <v>1.013536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>16.073215000000001</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0.98969600000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>2387518</v>
+      </c>
+      <c r="C122">
+        <v>23.598400000000002</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1066922</v>
+      </c>
+      <c r="H122">
+        <v>17.188448000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>1843545</v>
+      </c>
+      <c r="C123">
+        <v>31.812576</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>254225</v>
+      </c>
+      <c r="H123">
+        <v>11.820959999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>1605690</v>
+      </c>
+      <c r="C124">
+        <v>26.416384000000001</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>88251</v>
+      </c>
+      <c r="H124">
+        <v>4.5135680000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>1423868</v>
+      </c>
+      <c r="C125">
+        <v>23.546976000000001</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>32013</v>
+      </c>
+      <c r="H125">
+        <v>2.0569600000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>1284516</v>
+      </c>
+      <c r="C126">
+        <v>21.552831999999999</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>13694</v>
+      </c>
+      <c r="H126">
+        <v>1.068576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>1169300</v>
+      </c>
+      <c r="C127">
+        <v>17.025151999999999</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+      <c r="G127">
+        <v>6399</v>
+      </c>
+      <c r="H127">
+        <v>1.052224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>1072726</v>
+      </c>
+      <c r="C128">
+        <v>16.561824999999999</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+      <c r="G128">
+        <v>3755</v>
+      </c>
+      <c r="H128">
+        <v>0.99916799999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>15.361632</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0.98124800000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>2387518</v>
+      </c>
+      <c r="C130">
+        <v>24.196383999999998</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1066922</v>
+      </c>
+      <c r="H130">
+        <v>17.321728</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>1843162</v>
+      </c>
+      <c r="C131">
+        <v>30.979808999999999</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>254403</v>
+      </c>
+      <c r="H131">
+        <v>11.637344000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>1605786</v>
+      </c>
+      <c r="C132">
+        <v>26.130303999999999</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>88486</v>
+      </c>
+      <c r="H132">
+        <v>4.4442880000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>1423903</v>
+      </c>
+      <c r="C133">
+        <v>24.798559000000001</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133">
+        <v>32239</v>
+      </c>
+      <c r="H133">
+        <v>2.1706240000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>1284477</v>
+      </c>
+      <c r="C134">
+        <v>20.149887</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134">
+        <v>13924</v>
+      </c>
+      <c r="H134">
+        <v>1.0771520000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>1168974</v>
+      </c>
+      <c r="C135">
+        <v>17.895872000000001</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+      <c r="G135">
+        <v>6534</v>
+      </c>
+      <c r="H135">
+        <v>1.0301439999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>1071973</v>
+      </c>
+      <c r="C136">
+        <v>16.252607000000001</v>
+      </c>
+      <c r="F136">
+        <v>7</v>
+      </c>
+      <c r="G136">
+        <v>3794</v>
+      </c>
+      <c r="H136">
+        <v>1.03792</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>15.212896000000001</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0.99257600000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>2387518</v>
+      </c>
+      <c r="C138">
+        <v>23.000319999999999</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1066922</v>
+      </c>
+      <c r="H138">
+        <v>17.549313000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>1843195</v>
+      </c>
+      <c r="C139">
+        <v>32.132671000000002</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>254656</v>
+      </c>
+      <c r="H139">
+        <v>11.611903999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>1605689</v>
+      </c>
+      <c r="C140">
+        <v>26.329087999999999</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>88432</v>
+      </c>
+      <c r="H140">
+        <v>4.6246720000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141">
+        <v>1423756</v>
+      </c>
+      <c r="C141">
+        <v>24.856352000000001</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141">
+        <v>32033</v>
+      </c>
+      <c r="H141">
+        <v>2.0828159999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>1283893</v>
+      </c>
+      <c r="C142">
+        <v>20.567326999999999</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>13730</v>
+      </c>
+      <c r="H142">
+        <v>1.2492799999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>1168933</v>
+      </c>
+      <c r="C143">
+        <v>17.313761</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+      <c r="G143">
+        <v>6463</v>
+      </c>
+      <c r="H143">
+        <v>1.042432</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>1072086</v>
+      </c>
+      <c r="C144">
+        <v>16.087071999999999</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <v>3744</v>
+      </c>
+      <c r="H144">
+        <v>1.0260480000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>14.735968</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1.0096000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>2387518</v>
+      </c>
+      <c r="C146">
+        <v>23.052928999999999</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1066922</v>
+      </c>
+      <c r="H146">
+        <v>17.127486999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>1843171</v>
+      </c>
+      <c r="C147">
+        <v>31.794176</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>254745</v>
+      </c>
+      <c r="H147">
+        <v>12.140544</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>1605728</v>
+      </c>
+      <c r="C148">
+        <v>25.864160999999999</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>88336</v>
+      </c>
+      <c r="H148">
+        <v>3.9672320000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>1423474</v>
+      </c>
+      <c r="C149">
+        <v>24.034528999999999</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149">
+        <v>32106</v>
+      </c>
+      <c r="H149">
+        <v>1.9707520000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150">
+        <v>1283571</v>
+      </c>
+      <c r="C150">
+        <v>20.722849</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150">
+        <v>13813</v>
+      </c>
+      <c r="H150">
+        <v>1.1100159999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>1168902</v>
+      </c>
+      <c r="C151">
+        <v>18.054366999999999</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+      <c r="G151">
+        <v>6350</v>
+      </c>
+      <c r="H151">
+        <v>1.0222720000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>1072424</v>
+      </c>
+      <c r="C152">
+        <v>16.57856</v>
+      </c>
+      <c r="F152">
+        <v>7</v>
+      </c>
+      <c r="G152">
+        <v>3759</v>
+      </c>
+      <c r="H152">
+        <v>1.0092479999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>15.351392000000001</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1.0265599999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>2387518</v>
+      </c>
+      <c r="C154">
+        <v>22.816704000000001</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1066922</v>
+      </c>
+      <c r="H154">
+        <v>16.223103999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>1843484</v>
+      </c>
+      <c r="C155">
+        <v>31.534559000000002</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>255018</v>
+      </c>
+      <c r="H155">
+        <v>11.585984</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>1606526</v>
+      </c>
+      <c r="C156">
+        <v>26.841280000000001</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>88828</v>
+      </c>
+      <c r="H156">
+        <v>5.4324159999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>1424484</v>
+      </c>
+      <c r="C157">
+        <v>23.615743999999999</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157">
+        <v>32027</v>
+      </c>
+      <c r="H157">
+        <v>2.5846399999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>1285137</v>
+      </c>
+      <c r="C158">
+        <v>20.994399999999999</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158">
+        <v>13721</v>
+      </c>
+      <c r="H158">
+        <v>1.1448320000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>1170158</v>
+      </c>
+      <c r="C159">
+        <v>18.116544999999999</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>6355</v>
+      </c>
+      <c r="H159">
+        <v>1.00352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>1073509</v>
+      </c>
+      <c r="C160">
+        <v>16.390143999999999</v>
+      </c>
+      <c r="F160">
+        <v>7</v>
+      </c>
+      <c r="G160">
+        <v>3834</v>
+      </c>
+      <c r="H160">
+        <v>1.0363519999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>14.569984</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1.006176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
